--- a/Code/Results/Cases/Case_3_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.51577164174963</v>
+        <v>17.65998168759154</v>
       </c>
       <c r="C2">
-        <v>11.13827687114449</v>
+        <v>9.454334676803104</v>
       </c>
       <c r="D2">
-        <v>5.113733431041135</v>
+        <v>8.66778661278788</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.2734896178484</v>
+        <v>35.88709300095054</v>
       </c>
       <c r="G2">
-        <v>2.096520640005366</v>
+        <v>3.673096781676145</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.268266522270497</v>
+        <v>10.58216666743187</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.935888288365051</v>
+        <v>11.5152360268251</v>
       </c>
       <c r="M2">
-        <v>12.50688353694987</v>
+        <v>17.09381115951702</v>
       </c>
       <c r="N2">
-        <v>12.84046159360442</v>
+        <v>19.39270941728943</v>
       </c>
       <c r="O2">
-        <v>17.98623044633889</v>
+        <v>27.32680961507912</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.28975659692567</v>
+        <v>17.3116332721032</v>
       </c>
       <c r="C3">
-        <v>10.69097034268529</v>
+        <v>9.277892576325129</v>
       </c>
       <c r="D3">
-        <v>5.073661046438673</v>
+        <v>8.674903163824824</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.94158298391899</v>
+        <v>35.95165870457684</v>
       </c>
       <c r="G3">
-        <v>2.102080380578522</v>
+        <v>3.675260152760615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.322668353775907</v>
+        <v>10.60172772103869</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.846382034887474</v>
+        <v>11.5206587173265</v>
       </c>
       <c r="M3">
-        <v>12.00691314203172</v>
+        <v>17.02679434356548</v>
       </c>
       <c r="N3">
-        <v>13.02751941964943</v>
+        <v>19.45187409895716</v>
       </c>
       <c r="O3">
-        <v>17.81919421139795</v>
+        <v>27.38980771525483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.49868969246032</v>
+        <v>17.09708237541352</v>
       </c>
       <c r="C4">
-        <v>10.4061865811393</v>
+        <v>9.166855104773273</v>
       </c>
       <c r="D4">
-        <v>5.05043204107448</v>
+        <v>8.680071783347728</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.75641452823999</v>
+        <v>35.99940429315065</v>
       </c>
       <c r="G4">
-        <v>2.105604060006561</v>
+        <v>3.676660041285918</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.357077786958749</v>
+        <v>10.61435669875794</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.79322499064622</v>
+        <v>11.52522818617098</v>
       </c>
       <c r="M4">
-        <v>11.69335996766377</v>
+        <v>16.98785494458413</v>
       </c>
       <c r="N4">
-        <v>13.14553385186609</v>
+        <v>19.49004931935115</v>
       </c>
       <c r="O4">
-        <v>17.73143710264833</v>
+        <v>27.43440126564977</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.16682743116452</v>
+        <v>17.00960350535917</v>
       </c>
       <c r="C5">
-        <v>10.28768623113774</v>
+        <v>9.120963388829553</v>
       </c>
       <c r="D5">
-        <v>5.04131407727481</v>
+        <v>8.68237943563321</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.68558804421396</v>
+        <v>36.02089473045378</v>
       </c>
       <c r="G5">
-        <v>2.107068265381218</v>
+        <v>3.677248560986378</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.371357661041269</v>
+        <v>10.61965906778992</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.772029832805977</v>
+        <v>11.52740288121625</v>
       </c>
       <c r="M5">
-        <v>11.56411381633294</v>
+        <v>16.97255334396941</v>
       </c>
       <c r="N5">
-        <v>13.19443165585758</v>
+        <v>19.50607192364543</v>
       </c>
       <c r="O5">
-        <v>17.69931024946453</v>
+        <v>27.4540572841419</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.11115311578674</v>
+        <v>16.99507836475678</v>
       </c>
       <c r="C6">
-        <v>10.26786466016472</v>
+        <v>9.113305355158504</v>
       </c>
       <c r="D6">
-        <v>5.039821121356555</v>
+        <v>8.682774797068946</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.6741052738958</v>
+        <v>36.02458591731803</v>
       </c>
       <c r="G6">
-        <v>2.107313121174847</v>
+        <v>3.677347376312282</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.373744523830268</v>
+        <v>10.62054895495566</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.768538981701035</v>
+        <v>11.52778289066672</v>
       </c>
       <c r="M6">
-        <v>11.54256947333946</v>
+        <v>16.97004705129611</v>
       </c>
       <c r="N6">
-        <v>13.20260010819736</v>
+        <v>19.50876063997787</v>
       </c>
       <c r="O6">
-        <v>17.69419241696761</v>
+        <v>27.45741067637355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.4942523258603</v>
+        <v>17.09590263817558</v>
       </c>
       <c r="C7">
-        <v>10.40459821546663</v>
+        <v>9.166238747700067</v>
       </c>
       <c r="D7">
-        <v>5.050307661292194</v>
+        <v>8.680102089075929</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.75544066512096</v>
+        <v>35.99968589141595</v>
       </c>
       <c r="G7">
-        <v>2.105623691492882</v>
+        <v>3.676667905093685</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.357269320662423</v>
+        <v>10.6144275762898</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.792937237322619</v>
+        <v>11.52525624812702</v>
       </c>
       <c r="M7">
-        <v>11.69162260870077</v>
+        <v>16.98764627393585</v>
       </c>
       <c r="N7">
-        <v>13.14619002643299</v>
+        <v>19.49026351778397</v>
       </c>
       <c r="O7">
-        <v>17.73098923330075</v>
+        <v>27.43466034992736</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.10105504890507</v>
+        <v>17.54007950474394</v>
       </c>
       <c r="C8">
-        <v>10.98620476038179</v>
+        <v>9.394079329168882</v>
       </c>
       <c r="D8">
-        <v>5.099632365393674</v>
+        <v>8.670074850693181</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.15515596860555</v>
+        <v>35.90767169064299</v>
       </c>
       <c r="G8">
-        <v>2.098415196957414</v>
+        <v>3.673827891995985</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.286818243788908</v>
+        <v>10.58878324107536</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.904661574837963</v>
+        <v>11.51684892690961</v>
       </c>
       <c r="M8">
-        <v>12.33595941976244</v>
+        <v>17.07025201049425</v>
       </c>
       <c r="N8">
-        <v>12.90431007097135</v>
+        <v>19.4127266163704</v>
       </c>
       <c r="O8">
-        <v>17.92551376107873</v>
+        <v>27.34730253173826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.99567770023018</v>
+        <v>18.40076839660962</v>
       </c>
       <c r="C9">
-        <v>12.04264914190936</v>
+        <v>9.817934208970891</v>
       </c>
       <c r="D9">
-        <v>5.207165259279237</v>
+        <v>8.656730350093667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.08842734098763</v>
+        <v>35.79165721251665</v>
       </c>
       <c r="G9">
-        <v>2.085122261123292</v>
+        <v>3.668823915983057</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.156428243602888</v>
+        <v>10.54338076769011</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.137393075259626</v>
+        <v>11.51016361792547</v>
       </c>
       <c r="M9">
-        <v>13.5404898234865</v>
+        <v>17.24926367641339</v>
       </c>
       <c r="N9">
-        <v>12.45454227201485</v>
+        <v>19.27528252320482</v>
       </c>
       <c r="O9">
-        <v>18.42791893310016</v>
+        <v>27.22302903083926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.99827526418282</v>
+        <v>19.02030188479462</v>
       </c>
       <c r="C10">
-        <v>12.76360553235756</v>
+        <v>10.11346402566032</v>
       </c>
       <c r="D10">
-        <v>5.292602285761399</v>
+        <v>8.65074978087701</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.86669505356277</v>
+        <v>35.74585581721592</v>
       </c>
       <c r="G10">
-        <v>2.075825979325057</v>
+        <v>3.66548847818383</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.065038777729061</v>
+        <v>10.51297284671684</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.315824752264771</v>
+        <v>11.51117620558312</v>
       </c>
       <c r="M10">
-        <v>14.38171727188775</v>
+        <v>17.39044910071992</v>
       </c>
       <c r="N10">
-        <v>12.13835063498134</v>
+        <v>19.18312684463478</v>
       </c>
       <c r="O10">
-        <v>18.87493802975176</v>
+        <v>27.1605512141965</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.861807658647</v>
+        <v>19.29808022924049</v>
       </c>
       <c r="C11">
-        <v>13.07900520697629</v>
+        <v>10.24409655268802</v>
       </c>
       <c r="D11">
-        <v>5.332830314451571</v>
+        <v>8.648852924514356</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.24098715940758</v>
+        <v>35.73360376099321</v>
       </c>
       <c r="G11">
-        <v>2.071688603534158</v>
+        <v>3.664044371388607</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.024344969839337</v>
+        <v>10.49977365325583</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.398430710403682</v>
+        <v>11.51291135726142</v>
       </c>
       <c r="M11">
-        <v>14.75366286234705</v>
+        <v>17.456615181445</v>
       </c>
       <c r="N11">
-        <v>11.99745041507626</v>
+        <v>19.14310224321219</v>
       </c>
       <c r="O11">
-        <v>19.09594730747838</v>
+        <v>27.13841401845449</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.1820606662314</v>
+        <v>19.40258596185146</v>
       </c>
       <c r="C12">
-        <v>13.19659586790033</v>
+        <v>10.29298843439057</v>
       </c>
       <c r="D12">
-        <v>5.348256236526725</v>
+        <v>8.648252506240848</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.38563495761729</v>
+        <v>35.73019903712675</v>
       </c>
       <c r="G12">
-        <v>2.070134145293441</v>
+        <v>3.663507993365039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.009055291045047</v>
+        <v>10.49486609390562</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.429903011374615</v>
+        <v>11.51375056421518</v>
       </c>
       <c r="M12">
-        <v>14.89288438151581</v>
+        <v>17.48193518542143</v>
       </c>
       <c r="N12">
-        <v>11.94450602069365</v>
+        <v>19.12821759732875</v>
       </c>
       <c r="O12">
-        <v>19.18222710284661</v>
+        <v>27.13093647190626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.11338730205076</v>
+        <v>19.38011068930118</v>
       </c>
       <c r="C13">
-        <v>13.17135313510887</v>
+        <v>10.28248473799322</v>
       </c>
       <c r="D13">
-        <v>5.344925483169249</v>
+        <v>8.648376583646238</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.35435301810033</v>
+        <v>35.7308773822579</v>
       </c>
       <c r="G13">
-        <v>2.070468394491356</v>
+        <v>3.663623046968851</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.012342956174762</v>
+        <v>10.4959189977192</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.423116619743032</v>
+        <v>11.51356174380211</v>
       </c>
       <c r="M13">
-        <v>14.86297401046707</v>
+        <v>17.47647054977386</v>
       </c>
       <c r="N13">
-        <v>11.95589041184948</v>
+        <v>19.1314112002426</v>
       </c>
       <c r="O13">
-        <v>19.16352935373272</v>
+        <v>27.13250660806125</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.8882898513217</v>
+        <v>19.30669221881522</v>
       </c>
       <c r="C14">
-        <v>13.08871660444377</v>
+        <v>10.24813061464144</v>
       </c>
       <c r="D14">
-        <v>5.334095576954443</v>
+        <v>8.648801168599926</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.25282908476819</v>
+        <v>35.73329890282761</v>
       </c>
       <c r="G14">
-        <v>2.071560476588601</v>
+        <v>3.66400003363177</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.023084707567766</v>
+        <v>10.4993680901982</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.401016208392004</v>
+        <v>11.51297675560879</v>
       </c>
       <c r="M14">
-        <v>14.76514970932942</v>
+        <v>17.45869306072514</v>
       </c>
       <c r="N14">
-        <v>11.99308646229466</v>
+        <v>19.14187223308627</v>
       </c>
       <c r="O14">
-        <v>19.10299345860148</v>
+        <v>27.13778068385324</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.74953472658545</v>
+        <v>19.26162947466719</v>
       </c>
       <c r="C15">
-        <v>13.03785821204458</v>
+        <v>10.22701191664346</v>
       </c>
       <c r="D15">
-        <v>5.32748690733112</v>
+        <v>8.649076573273863</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.19102183234525</v>
+        <v>35.73494297582517</v>
       </c>
       <c r="G15">
-        <v>2.07223097974311</v>
+        <v>3.664232311311889</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.029679798301893</v>
+        <v>10.50149255714812</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.387503528112631</v>
+        <v>11.5126421191836</v>
       </c>
       <c r="M15">
-        <v>14.70501553761624</v>
+        <v>17.44783781999347</v>
       </c>
       <c r="N15">
-        <v>12.01592338643421</v>
+        <v>19.14831528346681</v>
       </c>
       <c r="O15">
-        <v>19.066251934633</v>
+        <v>27.14112915113431</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.94089283961994</v>
+        <v>19.002058186638</v>
       </c>
       <c r="C16">
-        <v>12.74273713924481</v>
+        <v>10.10484781917437</v>
       </c>
       <c r="D16">
-        <v>5.290000404947967</v>
+        <v>8.650890272136486</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.84264173125702</v>
+        <v>35.74682930221626</v>
       </c>
       <c r="G16">
-        <v>2.076098134155105</v>
+        <v>3.665584322464564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.067715383681437</v>
+        <v>10.51384815792606</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.310453835699628</v>
+        <v>11.51108836057488</v>
       </c>
       <c r="M16">
-        <v>14.35718632753004</v>
+        <v>17.3861627890032</v>
       </c>
       <c r="N16">
-        <v>12.14761695613777</v>
+        <v>19.18578063814436</v>
       </c>
       <c r="O16">
-        <v>18.86085419782812</v>
+        <v>27.16212453766116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.43271491385123</v>
+        <v>18.84170880648147</v>
       </c>
       <c r="C17">
-        <v>12.55844163730281</v>
+        <v>10.02890848238978</v>
       </c>
       <c r="D17">
-        <v>5.267350084352446</v>
+        <v>8.65221349554804</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.63410973711073</v>
+        <v>35.75632020239332</v>
       </c>
       <c r="G17">
-        <v>2.078493342252191</v>
+        <v>3.666432448611389</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.091269912697792</v>
+        <v>10.52158988550947</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.263543120991375</v>
+        <v>11.51046082908562</v>
       </c>
       <c r="M17">
-        <v>14.14099127711975</v>
+        <v>17.34881377189296</v>
       </c>
       <c r="N17">
-        <v>12.22915105924357</v>
+        <v>19.20924965441022</v>
       </c>
       <c r="O17">
-        <v>18.73940863659463</v>
+        <v>27.17661537497866</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.13595246474968</v>
+        <v>18.74910445982368</v>
       </c>
       <c r="C18">
-        <v>12.45125845777806</v>
+        <v>9.984873585632004</v>
       </c>
       <c r="D18">
-        <v>5.254450650616866</v>
+        <v>8.653052148014687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.51607443743412</v>
+        <v>35.7625870189021</v>
       </c>
       <c r="G18">
-        <v>2.079879676224611</v>
+        <v>3.666927161422594</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.104901056479617</v>
+        <v>10.52610237691429</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.236697409920874</v>
+        <v>11.51021992498915</v>
       </c>
       <c r="M18">
-        <v>14.0156352363463</v>
+        <v>17.32751512045131</v>
       </c>
       <c r="N18">
-        <v>12.2763243868139</v>
+        <v>19.22292707328593</v>
       </c>
       <c r="O18">
-        <v>18.67121586009993</v>
+        <v>27.18554155051044</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.03470347397572</v>
+        <v>18.71768886396117</v>
       </c>
       <c r="C19">
-        <v>12.41476648140287</v>
+        <v>9.969903782382893</v>
       </c>
       <c r="D19">
-        <v>5.25010528884355</v>
+        <v>8.653349441017024</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.47643718485521</v>
+        <v>35.76484758330201</v>
       </c>
       <c r="G19">
-        <v>2.080350580913827</v>
+        <v>3.667095848174545</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.109530804432202</v>
+        <v>10.52764048726233</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.227631766672917</v>
+        <v>11.51015900869909</v>
       </c>
       <c r="M19">
-        <v>13.97302178099379</v>
+        <v>17.3203357218432</v>
       </c>
       <c r="N19">
-        <v>12.29234438934108</v>
+        <v>19.2275887299907</v>
       </c>
       <c r="O19">
-        <v>18.64841039509334</v>
+        <v>27.18866532232235</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.48727360976961</v>
+        <v>18.85881789406185</v>
       </c>
       <c r="C20">
-        <v>12.57818276632509</v>
+        <v>10.03702947421861</v>
       </c>
       <c r="D20">
-        <v>5.269747982794832</v>
+        <v>8.652064612102462</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.65611097692227</v>
+        <v>35.75522625842692</v>
       </c>
       <c r="G20">
-        <v>2.078237476823658</v>
+        <v>3.66634145110644</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.08875392648717</v>
+        <v>10.52075959436725</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.268522875283876</v>
+        <v>11.51051521567815</v>
       </c>
       <c r="M20">
-        <v>14.16411041563186</v>
+        <v>17.35277075022939</v>
       </c>
       <c r="N20">
-        <v>12.22044301934188</v>
+        <v>19.20673285445132</v>
       </c>
       <c r="O20">
-        <v>18.75216460005946</v>
+        <v>27.17501157673</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.95458893470931</v>
+        <v>19.32827630734563</v>
       </c>
       <c r="C21">
-        <v>13.11303926139244</v>
+        <v>10.25823709961398</v>
       </c>
       <c r="D21">
-        <v>5.337271387148959</v>
+        <v>8.648673263139608</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.28257012825269</v>
+        <v>35.73255412834023</v>
       </c>
       <c r="G21">
-        <v>2.07123937980989</v>
+        <v>3.663889019666951</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.019926385180881</v>
+        <v>10.49835255012092</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.407502563777135</v>
+        <v>11.51314364684062</v>
       </c>
       <c r="M21">
-        <v>14.79392779293713</v>
+        <v>17.46390768446587</v>
       </c>
       <c r="N21">
-        <v>11.98214999815366</v>
+        <v>19.13879220583242</v>
       </c>
       <c r="O21">
-        <v>19.12070370247291</v>
+        <v>27.13620697816519</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.87427066173852</v>
+        <v>19.63107178233846</v>
       </c>
       <c r="C22">
-        <v>13.45183789875098</v>
+        <v>10.39944080515549</v>
       </c>
       <c r="D22">
-        <v>5.382522026918791</v>
+        <v>8.647143635463785</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.7089662493084</v>
+        <v>35.72493409463576</v>
       </c>
       <c r="G22">
-        <v>2.066736817580498</v>
+        <v>3.662347239768653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.97564093660937</v>
+        <v>10.48423666667247</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.499441876693802</v>
+        <v>11.51592257784751</v>
       </c>
       <c r="M22">
-        <v>15.1960437791918</v>
+        <v>17.53807585842019</v>
       </c>
       <c r="N22">
-        <v>11.82880534132567</v>
+        <v>19.09597285915859</v>
       </c>
       <c r="O22">
-        <v>19.37667213191402</v>
+        <v>27.11612339081167</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.38698813805492</v>
+        <v>19.46986382914691</v>
       </c>
       <c r="C23">
-        <v>13.27200919880076</v>
+        <v>10.32439488813001</v>
       </c>
       <c r="D23">
-        <v>5.35826951895865</v>
+        <v>8.647897377347913</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.47983880816855</v>
+        <v>35.72834245913175</v>
       </c>
       <c r="G23">
-        <v>2.069133723656233</v>
+        <v>3.663164550013721</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.99921528954275</v>
+        <v>10.49172236416234</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.450275603667031</v>
+        <v>11.51434270888988</v>
       </c>
       <c r="M23">
-        <v>14.98231997707505</v>
+        <v>17.4983554994476</v>
       </c>
       <c r="N23">
-        <v>11.91043272571317</v>
+        <v>19.11868177617107</v>
       </c>
       <c r="O23">
-        <v>19.23865960516595</v>
+        <v>27.1263590379843</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.46262197011709</v>
+        <v>18.85108416779894</v>
       </c>
       <c r="C24">
-        <v>12.56926162777296</v>
+        <v>10.03335914393735</v>
       </c>
       <c r="D24">
-        <v>5.268663510968118</v>
+        <v>8.65213167958531</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.64615844613598</v>
+        <v>35.75571830627113</v>
       </c>
       <c r="G24">
-        <v>2.078353124559372</v>
+        <v>3.666382568915343</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.0898911251322</v>
+        <v>10.52113477686628</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.266271141322861</v>
+        <v>11.51049025402813</v>
       </c>
       <c r="M24">
-        <v>14.15366155649375</v>
+        <v>17.35098125784676</v>
       </c>
       <c r="N24">
-        <v>12.22437899425962</v>
+        <v>19.20787012407318</v>
       </c>
       <c r="O24">
-        <v>18.74639256221768</v>
+        <v>27.17573480001087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.21563382138952</v>
+        <v>18.16972675122485</v>
       </c>
       <c r="C25">
-        <v>11.76631056811968</v>
+        <v>9.705928380381144</v>
       </c>
       <c r="D25">
-        <v>5.176932925975099</v>
+        <v>8.659666779775284</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.81975936376678</v>
+        <v>35.81612612982521</v>
       </c>
       <c r="G25">
-        <v>2.088632488235383</v>
+        <v>3.670117483347272</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.190903621927922</v>
+        <v>10.55514330835676</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.073062299449457</v>
+        <v>11.51092789230593</v>
       </c>
       <c r="M25">
-        <v>13.22182774703238</v>
+        <v>17.19908536861062</v>
       </c>
       <c r="N25">
-        <v>12.57366193217881</v>
+        <v>19.31090944806617</v>
       </c>
       <c r="O25">
-        <v>18.27859459975461</v>
+        <v>27.25159593639244</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_108/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65998168759154</v>
+        <v>19.51577164174962</v>
       </c>
       <c r="C2">
-        <v>9.454334676803104</v>
+        <v>11.13827687114431</v>
       </c>
       <c r="D2">
-        <v>8.66778661278788</v>
+        <v>5.11373343104107</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.88709300095054</v>
+        <v>24.27348961784855</v>
       </c>
       <c r="G2">
-        <v>3.673096781676145</v>
+        <v>2.096520640005499</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.58216666743187</v>
+        <v>6.268266522270498</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.5152360268251</v>
+        <v>6.935888288365104</v>
       </c>
       <c r="M2">
-        <v>17.09381115951702</v>
+        <v>12.5068835369499</v>
       </c>
       <c r="N2">
-        <v>19.39270941728943</v>
+        <v>12.84046159360446</v>
       </c>
       <c r="O2">
-        <v>27.32680961507912</v>
+        <v>17.98623044633903</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.3116332721032</v>
+        <v>18.28975659692567</v>
       </c>
       <c r="C3">
-        <v>9.277892576325129</v>
+        <v>10.69097034268517</v>
       </c>
       <c r="D3">
-        <v>8.674903163824824</v>
+        <v>5.073661046438614</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.95165870457684</v>
+        <v>23.94158298391906</v>
       </c>
       <c r="G3">
-        <v>3.675260152760615</v>
+        <v>2.102080380578254</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.60172772103869</v>
+        <v>6.322668353776006</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.5206587173265</v>
+        <v>6.846382034887444</v>
       </c>
       <c r="M3">
-        <v>17.02679434356548</v>
+        <v>12.00691314203173</v>
       </c>
       <c r="N3">
-        <v>19.45187409895716</v>
+        <v>13.02751941964946</v>
       </c>
       <c r="O3">
-        <v>27.38980771525483</v>
+        <v>17.81919421139801</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.09708237541352</v>
+        <v>17.49868969246031</v>
       </c>
       <c r="C4">
-        <v>9.166855104773273</v>
+        <v>10.4061865811391</v>
       </c>
       <c r="D4">
-        <v>8.680071783347728</v>
+        <v>5.050432041074364</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.99940429315065</v>
+        <v>23.75641452823998</v>
       </c>
       <c r="G4">
-        <v>3.676660041285918</v>
+        <v>2.105604060006559</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.61435669875794</v>
+        <v>6.357077786958749</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.52522818617098</v>
+        <v>6.793224990646222</v>
       </c>
       <c r="M4">
-        <v>16.98785494458413</v>
+        <v>11.69335996766377</v>
       </c>
       <c r="N4">
-        <v>19.49004931935115</v>
+        <v>13.14553385186609</v>
       </c>
       <c r="O4">
-        <v>27.43440126564977</v>
+        <v>17.73143710264835</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.00960350535917</v>
+        <v>17.1668274311645</v>
       </c>
       <c r="C5">
-        <v>9.120963388829553</v>
+        <v>10.28768623113775</v>
       </c>
       <c r="D5">
-        <v>8.68237943563321</v>
+        <v>5.04131407727475</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.02089473045378</v>
+        <v>23.68558804421397</v>
       </c>
       <c r="G5">
-        <v>3.677248560986378</v>
+        <v>2.107068265381352</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.61965906778992</v>
+        <v>6.371357661041302</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.52740288121625</v>
+        <v>6.77202983280598</v>
       </c>
       <c r="M5">
-        <v>16.97255334396941</v>
+        <v>11.56411381633295</v>
       </c>
       <c r="N5">
-        <v>19.50607192364543</v>
+        <v>13.19443165585758</v>
       </c>
       <c r="O5">
-        <v>27.4540572841419</v>
+        <v>17.69931024946456</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.99507836475678</v>
+        <v>17.11115311578678</v>
       </c>
       <c r="C6">
-        <v>9.113305355158504</v>
+        <v>10.26786466016481</v>
       </c>
       <c r="D6">
-        <v>8.682774797068946</v>
+        <v>5.039821121356683</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.02458591731803</v>
+        <v>23.67410527389592</v>
       </c>
       <c r="G6">
-        <v>3.677347376312282</v>
+        <v>2.107313121174848</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.62054895495566</v>
+        <v>6.373744523830204</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.52778289066672</v>
+        <v>6.768538981700925</v>
       </c>
       <c r="M6">
-        <v>16.97004705129611</v>
+        <v>11.54256947333945</v>
       </c>
       <c r="N6">
-        <v>19.50876063997787</v>
+        <v>13.20260010819739</v>
       </c>
       <c r="O6">
-        <v>27.45741067637355</v>
+        <v>17.69419241696772</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.09590263817558</v>
+        <v>17.49425232586033</v>
       </c>
       <c r="C7">
-        <v>9.166238747700067</v>
+        <v>10.40459821546661</v>
       </c>
       <c r="D7">
-        <v>8.680102089075929</v>
+        <v>5.050307661292013</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.99968589141595</v>
+        <v>23.75544066512098</v>
       </c>
       <c r="G7">
-        <v>3.676667905093685</v>
+        <v>2.105623691492481</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.6144275762898</v>
+        <v>6.357269320662525</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.52525624812702</v>
+        <v>6.792937237322665</v>
       </c>
       <c r="M7">
-        <v>16.98764627393585</v>
+        <v>11.69162260870081</v>
       </c>
       <c r="N7">
-        <v>19.49026351778397</v>
+        <v>13.14619002643302</v>
       </c>
       <c r="O7">
-        <v>27.43466034992736</v>
+        <v>17.73098923330085</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.54007950474394</v>
+        <v>19.10105504890506</v>
       </c>
       <c r="C8">
-        <v>9.394079329168882</v>
+        <v>10.98620476038191</v>
       </c>
       <c r="D8">
-        <v>8.670074850693181</v>
+        <v>5.099632365393725</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.90767169064299</v>
+        <v>24.15515596860553</v>
       </c>
       <c r="G8">
-        <v>3.673827891995985</v>
+        <v>2.098415196957546</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.58878324107536</v>
+        <v>6.286818243788908</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.51684892690961</v>
+        <v>6.904661574837995</v>
       </c>
       <c r="M8">
-        <v>17.07025201049425</v>
+        <v>12.33595941976244</v>
       </c>
       <c r="N8">
-        <v>19.4127266163704</v>
+        <v>12.90431007097132</v>
       </c>
       <c r="O8">
-        <v>27.34730253173826</v>
+        <v>17.92551376107869</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.40076839660962</v>
+        <v>21.99567770023016</v>
       </c>
       <c r="C9">
-        <v>9.817934208970891</v>
+        <v>12.04264914190954</v>
       </c>
       <c r="D9">
-        <v>8.656730350093667</v>
+        <v>5.207165259279237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.79165721251665</v>
+        <v>25.08842734098758</v>
       </c>
       <c r="G9">
-        <v>3.668823915983057</v>
+        <v>2.085122261123292</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.54338076769011</v>
+        <v>6.156428243602922</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.51016361792547</v>
+        <v>7.137393075259626</v>
       </c>
       <c r="M9">
-        <v>17.24926367641339</v>
+        <v>13.54048982348651</v>
       </c>
       <c r="N9">
-        <v>19.27528252320482</v>
+        <v>12.45454227201478</v>
       </c>
       <c r="O9">
-        <v>27.22302903083926</v>
+        <v>18.42791893310013</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.02030188479462</v>
+        <v>23.99827526418293</v>
       </c>
       <c r="C10">
-        <v>10.11346402566032</v>
+        <v>12.76360553235746</v>
       </c>
       <c r="D10">
-        <v>8.65074978087701</v>
+        <v>5.292602285761257</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.74585581721592</v>
+        <v>25.8666950535627</v>
       </c>
       <c r="G10">
-        <v>3.66548847818383</v>
+        <v>2.07582597932479</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.51297284671684</v>
+        <v>6.065038777728962</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.51117620558312</v>
+        <v>7.315824752264712</v>
       </c>
       <c r="M10">
-        <v>17.39044910071992</v>
+        <v>14.38171727188774</v>
       </c>
       <c r="N10">
-        <v>19.18312684463478</v>
+        <v>12.13835063498123</v>
       </c>
       <c r="O10">
-        <v>27.1605512141965</v>
+        <v>18.87493802975171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.29808022924049</v>
+        <v>24.86180765864698</v>
       </c>
       <c r="C11">
-        <v>10.24409655268802</v>
+        <v>13.07900520697629</v>
       </c>
       <c r="D11">
-        <v>8.648852924514356</v>
+        <v>5.332830314451478</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.73360376099321</v>
+        <v>26.24098715940752</v>
       </c>
       <c r="G11">
-        <v>3.664044371388607</v>
+        <v>2.07168860353416</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.49977365325583</v>
+        <v>6.024344969839339</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.51291135726142</v>
+        <v>7.398430710403622</v>
       </c>
       <c r="M11">
-        <v>17.456615181445</v>
+        <v>14.753662862347</v>
       </c>
       <c r="N11">
-        <v>19.14310224321219</v>
+        <v>11.99745041507627</v>
       </c>
       <c r="O11">
-        <v>27.13841401845449</v>
+        <v>19.09594730747835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.40258596185146</v>
+        <v>25.18206066623139</v>
       </c>
       <c r="C12">
-        <v>10.29298843439057</v>
+        <v>13.19659586790019</v>
       </c>
       <c r="D12">
-        <v>8.648252506240848</v>
+        <v>5.348256236526613</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.73019903712675</v>
+        <v>26.38563495761724</v>
       </c>
       <c r="G12">
-        <v>3.663507993365039</v>
+        <v>2.070134145293571</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.49486609390562</v>
+        <v>6.009055291044949</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.51375056421518</v>
+        <v>7.429903011374551</v>
       </c>
       <c r="M12">
-        <v>17.48193518542143</v>
+        <v>14.89288438151578</v>
       </c>
       <c r="N12">
-        <v>19.12821759732875</v>
+        <v>11.94450602069358</v>
       </c>
       <c r="O12">
-        <v>27.13093647190626</v>
+        <v>19.18222710284658</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.38011068930118</v>
+        <v>25.11338730205078</v>
       </c>
       <c r="C13">
-        <v>10.28248473799322</v>
+        <v>13.17135313510888</v>
       </c>
       <c r="D13">
-        <v>8.648376583646238</v>
+        <v>5.34492548316929</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.7308773822579</v>
+        <v>26.35435301810032</v>
       </c>
       <c r="G13">
-        <v>3.663623046968851</v>
+        <v>2.070468394491359</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.4959189977192</v>
+        <v>6.012342956174764</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.51356174380211</v>
+        <v>7.423116619743054</v>
       </c>
       <c r="M13">
-        <v>17.47647054977386</v>
+        <v>14.8629740104671</v>
       </c>
       <c r="N13">
-        <v>19.1314112002426</v>
+        <v>11.95589041184945</v>
       </c>
       <c r="O13">
-        <v>27.13250660806125</v>
+        <v>19.16352935373271</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.30669221881522</v>
+        <v>24.88828985132172</v>
       </c>
       <c r="C14">
-        <v>10.24813061464144</v>
+        <v>13.08871660444384</v>
       </c>
       <c r="D14">
-        <v>8.648801168599926</v>
+        <v>5.334095576954287</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.73329890282761</v>
+        <v>26.25282908476804</v>
       </c>
       <c r="G14">
-        <v>3.66400003363177</v>
+        <v>2.071560476588604</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.4993680901982</v>
+        <v>6.023084707567734</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.51297675560879</v>
+        <v>7.401016208391904</v>
       </c>
       <c r="M14">
-        <v>17.45869306072514</v>
+        <v>14.76514970932939</v>
       </c>
       <c r="N14">
-        <v>19.14187223308627</v>
+        <v>11.99308646229459</v>
       </c>
       <c r="O14">
-        <v>27.13778068385324</v>
+        <v>19.1029934586014</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.26162947466719</v>
+        <v>24.74953472658548</v>
       </c>
       <c r="C15">
-        <v>10.22701191664346</v>
+        <v>13.03785821204459</v>
       </c>
       <c r="D15">
-        <v>8.649076573273863</v>
+        <v>5.327486907331322</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.73494297582517</v>
+        <v>26.19102183234536</v>
       </c>
       <c r="G15">
-        <v>3.664232311311889</v>
+        <v>2.072230979743241</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.50149255714812</v>
+        <v>6.02967979830196</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.5126421191836</v>
+        <v>7.387503528112742</v>
       </c>
       <c r="M15">
-        <v>17.44783781999347</v>
+        <v>14.70501553761628</v>
       </c>
       <c r="N15">
-        <v>19.14831528346681</v>
+        <v>12.0159233864342</v>
       </c>
       <c r="O15">
-        <v>27.14112915113431</v>
+        <v>19.06625193463306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.002058186638</v>
+        <v>23.94089283961996</v>
       </c>
       <c r="C16">
-        <v>10.10484781917437</v>
+        <v>12.74273713924481</v>
       </c>
       <c r="D16">
-        <v>8.650890272136486</v>
+        <v>5.290000404948072</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.74682930221626</v>
+        <v>25.84264173125695</v>
       </c>
       <c r="G16">
-        <v>3.665584322464564</v>
+        <v>2.07609813415497</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.51384815792606</v>
+        <v>6.067715383681438</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.51108836057488</v>
+        <v>7.31045383569966</v>
       </c>
       <c r="M16">
-        <v>17.3861627890032</v>
+        <v>14.35718632753005</v>
       </c>
       <c r="N16">
-        <v>19.18578063814436</v>
+        <v>12.14761695613771</v>
       </c>
       <c r="O16">
-        <v>27.16212453766116</v>
+        <v>18.86085419782805</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.84170880648147</v>
+        <v>23.43271491385126</v>
       </c>
       <c r="C17">
-        <v>10.02890848238978</v>
+        <v>12.55844163730281</v>
       </c>
       <c r="D17">
-        <v>8.65221349554804</v>
+        <v>5.267350084352343</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.75632020239332</v>
+        <v>25.63410973711067</v>
       </c>
       <c r="G17">
-        <v>3.666432448611389</v>
+        <v>2.078493342252326</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.52158988550947</v>
+        <v>6.091269912697826</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.51046082908562</v>
+        <v>7.263543120991396</v>
       </c>
       <c r="M17">
-        <v>17.34881377189296</v>
+        <v>14.14099127711974</v>
       </c>
       <c r="N17">
-        <v>19.20924965441022</v>
+        <v>12.22915105924357</v>
       </c>
       <c r="O17">
-        <v>27.17661537497866</v>
+        <v>18.73940863659461</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.74910445982368</v>
+        <v>23.13595246474965</v>
       </c>
       <c r="C18">
-        <v>9.984873585632004</v>
+        <v>12.45125845777795</v>
       </c>
       <c r="D18">
-        <v>8.653052148014687</v>
+        <v>5.25445065061693</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.7625870189021</v>
+        <v>25.51607443743427</v>
       </c>
       <c r="G18">
-        <v>3.666927161422594</v>
+        <v>2.079879676224611</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.52610237691429</v>
+        <v>6.104901056479682</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.51021992498915</v>
+        <v>7.236697409920938</v>
       </c>
       <c r="M18">
-        <v>17.32751512045131</v>
+        <v>14.01563523634635</v>
       </c>
       <c r="N18">
-        <v>19.22292707328593</v>
+        <v>12.27632438681397</v>
       </c>
       <c r="O18">
-        <v>27.18554155051044</v>
+        <v>18.67121586010002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.71768886396117</v>
+        <v>23.0347034739757</v>
       </c>
       <c r="C19">
-        <v>9.969903782382893</v>
+        <v>12.41476648140287</v>
       </c>
       <c r="D19">
-        <v>8.653349441017024</v>
+        <v>5.25010528884355</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.76484758330201</v>
+        <v>25.47643718485518</v>
       </c>
       <c r="G19">
-        <v>3.667095848174545</v>
+        <v>2.080350580913695</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.52764048726233</v>
+        <v>6.109530804432102</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.51015900869909</v>
+        <v>7.227631766672865</v>
       </c>
       <c r="M19">
-        <v>17.3203357218432</v>
+        <v>13.97302178099375</v>
       </c>
       <c r="N19">
-        <v>19.2275887299907</v>
+        <v>12.29234438934108</v>
       </c>
       <c r="O19">
-        <v>27.18866532232235</v>
+        <v>18.64841039509329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.85881789406185</v>
+        <v>23.48727360976956</v>
       </c>
       <c r="C20">
-        <v>10.03702947421861</v>
+        <v>12.5781827663251</v>
       </c>
       <c r="D20">
-        <v>8.652064612102462</v>
+        <v>5.269747982794828</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.75522625842692</v>
+        <v>25.65611097692245</v>
       </c>
       <c r="G20">
-        <v>3.66634145110644</v>
+        <v>2.078237476823791</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.52075959436725</v>
+        <v>6.088753926487236</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.51051521567815</v>
+        <v>7.268522875283947</v>
       </c>
       <c r="M20">
-        <v>17.35277075022939</v>
+        <v>14.16411041563191</v>
       </c>
       <c r="N20">
-        <v>19.20673285445132</v>
+        <v>12.22044301934198</v>
       </c>
       <c r="O20">
-        <v>27.17501157673</v>
+        <v>18.75216460005964</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.32827630734563</v>
+        <v>24.95458893470946</v>
       </c>
       <c r="C21">
-        <v>10.25823709961398</v>
+        <v>13.11303926139238</v>
       </c>
       <c r="D21">
-        <v>8.648673263139608</v>
+        <v>5.337271387148873</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.73255412834023</v>
+        <v>26.2825701282523</v>
       </c>
       <c r="G21">
-        <v>3.663889019666951</v>
+        <v>2.071239379809887</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.49835255012092</v>
+        <v>6.019926385180914</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.51314364684062</v>
+        <v>7.407502563777096</v>
       </c>
       <c r="M21">
-        <v>17.46390768446587</v>
+        <v>14.79392779293706</v>
       </c>
       <c r="N21">
-        <v>19.13879220583242</v>
+        <v>11.98214999815346</v>
       </c>
       <c r="O21">
-        <v>27.13620697816519</v>
+        <v>19.12070370247263</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.63107178233846</v>
+        <v>25.87427066173855</v>
       </c>
       <c r="C22">
-        <v>10.39944080515549</v>
+        <v>13.45183789875101</v>
       </c>
       <c r="D22">
-        <v>8.647143635463785</v>
+        <v>5.382522026918791</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.72493409463576</v>
+        <v>26.70896624930836</v>
       </c>
       <c r="G22">
-        <v>3.662347239768653</v>
+        <v>2.066736817580497</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.48423666667247</v>
+        <v>5.975640936609405</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.51592257784751</v>
+        <v>7.499441876693812</v>
       </c>
       <c r="M22">
-        <v>17.53807585842019</v>
+        <v>15.19604377919179</v>
       </c>
       <c r="N22">
-        <v>19.09597285915859</v>
+        <v>11.82880534132564</v>
       </c>
       <c r="O22">
-        <v>27.11612339081167</v>
+        <v>19.37667213191399</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.46986382914691</v>
+        <v>25.3869881380549</v>
       </c>
       <c r="C23">
-        <v>10.32439488813001</v>
+        <v>13.27200919880033</v>
       </c>
       <c r="D23">
-        <v>8.647897377347913</v>
+        <v>5.358269518958603</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.72834245913175</v>
+        <v>26.47983880816863</v>
       </c>
       <c r="G23">
-        <v>3.663164550013721</v>
+        <v>2.069133723656368</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.49172236416234</v>
+        <v>5.999215289542683</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.51434270888988</v>
+        <v>7.450275603667032</v>
       </c>
       <c r="M23">
-        <v>17.4983554994476</v>
+        <v>14.98231997707505</v>
       </c>
       <c r="N23">
-        <v>19.11868177617107</v>
+        <v>11.91043272571327</v>
       </c>
       <c r="O23">
-        <v>27.1263590379843</v>
+        <v>19.23865960516606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.85108416779894</v>
+        <v>23.46262197011711</v>
       </c>
       <c r="C24">
-        <v>10.03335914393735</v>
+        <v>12.56926162777305</v>
       </c>
       <c r="D24">
-        <v>8.65213167958531</v>
+        <v>5.26866351096823</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.75571830627113</v>
+        <v>25.64615844613591</v>
       </c>
       <c r="G24">
-        <v>3.666382568915343</v>
+        <v>2.07835312455964</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.52113477686628</v>
+        <v>6.089891125132235</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.51049025402813</v>
+        <v>7.266271141322946</v>
       </c>
       <c r="M24">
-        <v>17.35098125784676</v>
+        <v>14.15366155649376</v>
       </c>
       <c r="N24">
-        <v>19.20787012407318</v>
+        <v>12.22437899425958</v>
       </c>
       <c r="O24">
-        <v>27.17573480001087</v>
+        <v>18.74639256221762</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.16972675122485</v>
+        <v>21.21563382138952</v>
       </c>
       <c r="C25">
-        <v>9.705928380381144</v>
+        <v>11.76631056811967</v>
       </c>
       <c r="D25">
-        <v>8.659666779775284</v>
+        <v>5.176932925974882</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.81612612982521</v>
+        <v>24.81975936376648</v>
       </c>
       <c r="G25">
-        <v>3.670117483347272</v>
+        <v>2.088632488235249</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.55514330835676</v>
+        <v>6.190903621927923</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.51092789230593</v>
+        <v>7.073062299449422</v>
       </c>
       <c r="M25">
-        <v>17.19908536861062</v>
+        <v>13.22182774703233</v>
       </c>
       <c r="N25">
-        <v>19.31090944806617</v>
+        <v>12.57366193217868</v>
       </c>
       <c r="O25">
-        <v>27.25159593639244</v>
+        <v>18.27859459975443</v>
       </c>
     </row>
   </sheetData>
